--- a/outputs/2024/metric_full_rel-202402.xlsx
+++ b/outputs/2024/metric_full_rel-202402.xlsx
@@ -601,10 +601,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>30.2</v>
+        <v>29.52</v>
       </c>
       <c r="E14">
-        <v>30.88</v>
+        <v>18.64</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G355"/>
+  <dimension ref="A1:G352"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -660,16 +660,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IN-AP</t>
+          <t>IN-AR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andhra Pradesh</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15.38</v>
+        <v>17.39</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="3">
@@ -699,7 +699,7 @@
         <v>2023</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>2023</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -753,16 +753,16 @@
         <v>2023</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.39</v>
+        <v>21.74</v>
       </c>
       <c r="G5">
-        <v>34.78</v>
+        <v>30.43</v>
       </c>
     </row>
     <row r="6">
@@ -780,7 +780,7 @@
         <v>2023</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>2023</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>2023</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>2023</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.74</v>
+        <v>20.83</v>
       </c>
       <c r="G9">
-        <v>30.43</v>
+        <v>29.17</v>
       </c>
     </row>
     <row r="10">
@@ -888,16 +888,16 @@
         <v>2023</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.83</v>
+        <v>25</v>
       </c>
       <c r="G10">
-        <v>29.17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -915,16 +915,16 @@
         <v>2023</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -942,7 +942,7 @@
         <v>2023</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="C13">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>2024</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1005,22 +1005,22 @@
         <v>24</v>
       </c>
       <c r="G14">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IN-AR</t>
+          <t>IN-AS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
+          <t>Assam</t>
         </is>
       </c>
       <c r="C15">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24</v>
+        <v>27.27</v>
       </c>
       <c r="G15">
-        <v>44</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="16">
@@ -1050,7 +1050,7 @@
         <v>2023</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>2023</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>2023</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>2023</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>2023</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>2023</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>2023</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>2023</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>2023</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>2023</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="C26">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F26">
-        <v>27.27</v>
+        <v>24.24</v>
       </c>
       <c r="G26">
         <v>12.12</v>
@@ -1347,10 +1347,10 @@
         <v>2024</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>24.24</v>
@@ -1362,16 +1362,16 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IN-AS</t>
+          <t>IN-BR</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Assam</t>
+          <t>Bihar</t>
         </is>
       </c>
       <c r="C28">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1380,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>39.39</v>
+        <v>15.79</v>
       </c>
       <c r="G28">
-        <v>24.24</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="29">
@@ -1401,7 +1401,7 @@
         <v>2023</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>2023</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1455,13 +1455,13 @@
         <v>2023</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="F31">
-        <v>15.79</v>
+        <v>13.16</v>
       </c>
       <c r="G31">
         <v>81.58</v>
@@ -1482,7 +1482,7 @@
         <v>2023</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>2.63</v>
@@ -1509,16 +1509,16 @@
         <v>2023</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33">
-        <v>2.63</v>
+        <v>5.26</v>
       </c>
       <c r="F33">
         <v>13.16</v>
       </c>
       <c r="G33">
-        <v>81.58</v>
+        <v>78.95</v>
       </c>
     </row>
     <row r="34">
@@ -1536,7 +1536,7 @@
         <v>2023</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>5.26</v>
@@ -1563,16 +1563,16 @@
         <v>2023</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>5.26</v>
+        <v>2.63</v>
       </c>
       <c r="F35">
-        <v>13.16</v>
+        <v>10.53</v>
       </c>
       <c r="G35">
-        <v>78.95</v>
+        <v>84.20999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1590,16 +1590,16 @@
         <v>2023</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>2.63</v>
+        <v>5.26</v>
       </c>
       <c r="F36">
-        <v>10.53</v>
+        <v>13.16</v>
       </c>
       <c r="G36">
-        <v>84.20999999999999</v>
+        <v>78.95</v>
       </c>
     </row>
     <row r="37">
@@ -1617,7 +1617,7 @@
         <v>2023</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37">
         <v>5.26</v>
@@ -1644,7 +1644,7 @@
         <v>2023</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <v>5.26</v>
@@ -1668,16 +1668,16 @@
         </is>
       </c>
       <c r="C39">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>5.26</v>
+        <v>2.63</v>
       </c>
       <c r="F39">
-        <v>13.16</v>
+        <v>15.79</v>
       </c>
       <c r="G39">
         <v>78.95</v>
@@ -1698,10 +1698,10 @@
         <v>2024</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>15.79</v>
@@ -1713,16 +1713,16 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IN-BR</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bihar</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C41">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1731,37 +1731,37 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>7.89</v>
+        <v>29.63</v>
       </c>
       <c r="G41">
-        <v>92.11</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IN-CH</t>
+          <t>IN-CT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chandigarh</t>
+          <t>Chhattisgarh</t>
         </is>
       </c>
       <c r="C42">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>100</v>
+        <v>29.63</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="43">
@@ -1779,7 +1779,7 @@
         <v>2023</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>2023</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>2023</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>2023</v>
       </c>
       <c r="D46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>2023</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>2023</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>2023</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>2023</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1995,7 +1995,7 @@
         <v>2023</v>
       </c>
       <c r="D51">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="C52">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D52">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="C53">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D53">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2064,55 +2064,55 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C54">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>29.63</v>
+        <v>50</v>
       </c>
       <c r="G54">
-        <v>3.7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IN-CT</t>
+          <t>IN-DD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chhattisgarh</t>
+          <t>Daman and Diu</t>
         </is>
       </c>
       <c r="C55">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>59.26</v>
+        <v>50</v>
       </c>
       <c r="G55">
-        <v>7.41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56">
@@ -2130,7 +2130,7 @@
         <v>2023</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>2023</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>2023</v>
       </c>
       <c r="D58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>2023</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>2023</v>
       </c>
       <c r="D60">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>2023</v>
       </c>
       <c r="D61">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>2023</v>
       </c>
       <c r="D62">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2319,7 +2319,7 @@
         <v>2023</v>
       </c>
       <c r="D63">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>2023</v>
       </c>
       <c r="D64">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="C65">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D65">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2397,73 +2397,73 @@
         </is>
       </c>
       <c r="C66">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G66">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C67">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>50</v>
+        <v>45.45</v>
       </c>
       <c r="G67">
-        <v>50</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IN-DD</t>
+          <t>IN-DL</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Daman and Diu</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C68">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>50</v>
+        <v>45.45</v>
       </c>
       <c r="G68">
-        <v>50</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="69">
@@ -2481,7 +2481,7 @@
         <v>2023</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>2023</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>2023</v>
       </c>
       <c r="D71">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2562,7 +2562,7 @@
         <v>2023</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>2023</v>
       </c>
       <c r="D73">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2616,7 +2616,7 @@
         <v>2023</v>
       </c>
       <c r="D74">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>2023</v>
       </c>
       <c r="D75">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2670,7 +2670,7 @@
         <v>2023</v>
       </c>
       <c r="D76">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>2023</v>
       </c>
       <c r="D77">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         </is>
       </c>
       <c r="C78">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D78">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2748,10 +2748,10 @@
         </is>
       </c>
       <c r="C79">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D79">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2766,79 +2766,79 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C80">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>45.45</v>
+        <v>9.09</v>
       </c>
       <c r="G80">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IN-DL</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Delhi</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C81">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>0</v>
       </c>
       <c r="F81">
-        <v>54.55</v>
+        <v>9.09</v>
       </c>
       <c r="G81">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IN-DN</t>
+          <t>IN-GJ</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Dadra and Nagar Haveli</t>
+          <t>Gujarat</t>
         </is>
       </c>
       <c r="C82">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F82">
-        <v>100</v>
+        <v>6.06</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>2023</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>2023</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2913,13 +2913,13 @@
         <v>2023</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E85">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>6.06</v>
+        <v>9.09</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2940,13 +2940,13 @@
         <v>2023</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F86">
-        <v>9.09</v>
+        <v>6.06</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>2023</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>2023</v>
       </c>
       <c r="D88">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3021,13 +3021,13 @@
         <v>2023</v>
       </c>
       <c r="D89">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E89">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>6.06</v>
+        <v>9.09</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3048,13 +3048,13 @@
         <v>2023</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F90">
-        <v>9.09</v>
+        <v>6.06</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3072,16 +3072,16 @@
         </is>
       </c>
       <c r="C91">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F91">
-        <v>9.09</v>
+        <v>6.06</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3099,16 +3099,16 @@
         </is>
       </c>
       <c r="C92">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D92">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E92">
         <v>0</v>
       </c>
       <c r="F92">
-        <v>9.09</v>
+        <v>6.06</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3117,82 +3117,82 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C93">
         <v>2023</v>
       </c>
       <c r="D93">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E93">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>6.06</v>
+        <v>16.67</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C94">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>6.06</v>
+        <v>16.67</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>IN-GJ</t>
+          <t>IN-HP</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>Himachal Pradesh</t>
         </is>
       </c>
       <c r="C95">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>15.15</v>
+        <v>16.67</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="96">
@@ -3210,7 +3210,7 @@
         <v>2023</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>2023</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>2023</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -3291,7 +3291,7 @@
         <v>2023</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3318,7 +3318,7 @@
         <v>2023</v>
       </c>
       <c r="D100">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>2023</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>2023</v>
       </c>
       <c r="D102">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>2023</v>
       </c>
       <c r="D103">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="C104">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -3450,10 +3450,10 @@
         </is>
       </c>
       <c r="C105">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D105">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -3468,82 +3468,82 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C106">
         <v>2023</v>
       </c>
       <c r="D106">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>16.67</v>
+        <v>63.64</v>
       </c>
       <c r="G106">
-        <v>8.33</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C107">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E107">
         <v>0</v>
       </c>
       <c r="F107">
-        <v>16.67</v>
+        <v>63.64</v>
       </c>
       <c r="G107">
-        <v>8.33</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>IN-HP</t>
+          <t>IN-HR</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Himachal Pradesh</t>
+          <t>Haryana</t>
         </is>
       </c>
       <c r="C108">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E108">
         <v>0</v>
       </c>
       <c r="F108">
-        <v>41.67</v>
+        <v>63.64</v>
       </c>
       <c r="G108">
-        <v>8.33</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="109">
@@ -3561,7 +3561,7 @@
         <v>2023</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>2023</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -3615,7 +3615,7 @@
         <v>2023</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>2023</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>2023</v>
       </c>
       <c r="D113">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>2023</v>
       </c>
       <c r="D114">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>2023</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>2023</v>
       </c>
       <c r="D116">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -3774,10 +3774,10 @@
         </is>
       </c>
       <c r="C117">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D117">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -3801,10 +3801,10 @@
         </is>
       </c>
       <c r="C118">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D118">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3819,82 +3819,82 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C119">
         <v>2023</v>
       </c>
       <c r="D119">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>63.64</v>
+        <v>37.5</v>
       </c>
       <c r="G119">
-        <v>9.09</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C120">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E120">
         <v>0</v>
       </c>
       <c r="F120">
-        <v>63.64</v>
+        <v>37.5</v>
       </c>
       <c r="G120">
-        <v>9.09</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>IN-HR</t>
+          <t>IN-JH</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Haryana</t>
+          <t>Jharkhand</t>
         </is>
       </c>
       <c r="C121">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E121">
         <v>0</v>
       </c>
       <c r="F121">
-        <v>45.45</v>
+        <v>37.5</v>
       </c>
       <c r="G121">
-        <v>36.36</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="122">
@@ -3912,16 +3912,16 @@
         <v>2023</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>37.5</v>
+        <v>33.33</v>
       </c>
       <c r="G122">
-        <v>54.17</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="123">
@@ -3939,16 +3939,16 @@
         <v>2023</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E123">
         <v>0</v>
       </c>
       <c r="F123">
-        <v>37.5</v>
+        <v>33.33</v>
       </c>
       <c r="G123">
-        <v>54.17</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="124">
@@ -3966,16 +3966,16 @@
         <v>2023</v>
       </c>
       <c r="D124">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E124">
         <v>0</v>
       </c>
       <c r="F124">
-        <v>37.5</v>
+        <v>33.33</v>
       </c>
       <c r="G124">
-        <v>54.17</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="125">
@@ -3993,7 +3993,7 @@
         <v>2023</v>
       </c>
       <c r="D125">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -4020,7 +4020,7 @@
         <v>2023</v>
       </c>
       <c r="D126">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -4047,16 +4047,16 @@
         <v>2023</v>
       </c>
       <c r="D127">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>33.33</v>
+        <v>37.5</v>
       </c>
       <c r="G127">
-        <v>58.33</v>
+        <v>54.17</v>
       </c>
     </row>
     <row r="128">
@@ -4074,16 +4074,16 @@
         <v>2023</v>
       </c>
       <c r="D128">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E128">
         <v>0</v>
       </c>
       <c r="F128">
-        <v>33.33</v>
+        <v>45.83</v>
       </c>
       <c r="G128">
-        <v>58.33</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="129">
@@ -4101,16 +4101,16 @@
         <v>2023</v>
       </c>
       <c r="D129">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E129">
         <v>0</v>
       </c>
       <c r="F129">
-        <v>33.33</v>
+        <v>45.83</v>
       </c>
       <c r="G129">
-        <v>58.33</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="130">
@@ -4125,19 +4125,19 @@
         </is>
       </c>
       <c r="C130">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D130">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>37.5</v>
+        <v>45.83</v>
       </c>
       <c r="G130">
-        <v>54.17</v>
+        <v>45.83</v>
       </c>
     </row>
     <row r="131">
@@ -4152,10 +4152,10 @@
         </is>
       </c>
       <c r="C131">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D131">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -4170,82 +4170,82 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C132">
         <v>2023</v>
       </c>
       <c r="D132">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E132">
         <v>0</v>
       </c>
       <c r="F132">
-        <v>45.83</v>
+        <v>54.55</v>
       </c>
       <c r="G132">
-        <v>45.83</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C133">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E133">
         <v>0</v>
       </c>
       <c r="F133">
-        <v>45.83</v>
+        <v>54.55</v>
       </c>
       <c r="G133">
-        <v>45.83</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>IN-JH</t>
+          <t>IN-JK</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jharkhand</t>
+          <t>Jammu and Kashmir</t>
         </is>
       </c>
       <c r="C134">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>20.83</v>
+        <v>54.55</v>
       </c>
       <c r="G134">
-        <v>75</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="135">
@@ -4263,7 +4263,7 @@
         <v>2023</v>
       </c>
       <c r="D135">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>2023</v>
       </c>
       <c r="D136">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>2023</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -4344,7 +4344,7 @@
         <v>2023</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>2023</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -4398,7 +4398,7 @@
         <v>2023</v>
       </c>
       <c r="D140">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>2023</v>
       </c>
       <c r="D141">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>2023</v>
       </c>
       <c r="D142">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -4476,10 +4476,10 @@
         </is>
       </c>
       <c r="C143">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D143">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -4503,10 +4503,10 @@
         </is>
       </c>
       <c r="C144">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D144">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -4521,82 +4521,82 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C145">
         <v>2023</v>
       </c>
       <c r="D145">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E145">
         <v>0</v>
       </c>
       <c r="F145">
-        <v>54.55</v>
+        <v>3.33</v>
       </c>
       <c r="G145">
-        <v>22.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C146">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E146">
         <v>0</v>
       </c>
       <c r="F146">
-        <v>54.55</v>
+        <v>3.33</v>
       </c>
       <c r="G146">
-        <v>22.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>IN-JK</t>
+          <t>IN-KA</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="C147">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E147">
         <v>0</v>
       </c>
       <c r="F147">
-        <v>54.55</v>
+        <v>3.33</v>
       </c>
       <c r="G147">
-        <v>31.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -4614,7 +4614,7 @@
         <v>2023</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -4641,7 +4641,7 @@
         <v>2023</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>2023</v>
       </c>
       <c r="D150">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -4695,7 +4695,7 @@
         <v>2023</v>
       </c>
       <c r="D151">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>2023</v>
       </c>
       <c r="D152">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -4749,7 +4749,7 @@
         <v>2023</v>
       </c>
       <c r="D153">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -4776,7 +4776,7 @@
         <v>2023</v>
       </c>
       <c r="D154">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -4803,7 +4803,7 @@
         <v>2023</v>
       </c>
       <c r="D155">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -4827,10 +4827,10 @@
         </is>
       </c>
       <c r="C156">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D156">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -4854,10 +4854,10 @@
         </is>
       </c>
       <c r="C157">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D157">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -4872,25 +4872,25 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C158">
         <v>2023</v>
       </c>
       <c r="D158">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E158">
         <v>0</v>
       </c>
       <c r="F158">
-        <v>3.33</v>
+        <v>19.44</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -4899,25 +4899,25 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C159">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E159">
         <v>0</v>
       </c>
       <c r="F159">
-        <v>3.33</v>
+        <v>19.44</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -4926,25 +4926,25 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>IN-KA</t>
+          <t>IN-MH</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C160">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E160">
         <v>0</v>
       </c>
       <c r="F160">
-        <v>3.33</v>
+        <v>19.44</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -4965,7 +4965,7 @@
         <v>2023</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -4992,7 +4992,7 @@
         <v>2023</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>2023</v>
       </c>
       <c r="D163">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -5046,7 +5046,7 @@
         <v>2023</v>
       </c>
       <c r="D164">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         <v>2023</v>
       </c>
       <c r="D165">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -5100,7 +5100,7 @@
         <v>2023</v>
       </c>
       <c r="D166">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -5127,7 +5127,7 @@
         <v>2023</v>
       </c>
       <c r="D167">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -5154,7 +5154,7 @@
         <v>2023</v>
       </c>
       <c r="D168">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -5178,10 +5178,10 @@
         </is>
       </c>
       <c r="C169">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D169">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -5205,16 +5205,16 @@
         </is>
       </c>
       <c r="C170">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D170">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E170">
         <v>0</v>
       </c>
       <c r="F170">
-        <v>19.44</v>
+        <v>16.67</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -5223,82 +5223,82 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C171">
         <v>2023</v>
       </c>
       <c r="D171">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E171">
         <v>0</v>
       </c>
       <c r="F171">
-        <v>19.44</v>
+        <v>45.45</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C172">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
       <c r="F172">
-        <v>19.44</v>
+        <v>45.45</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>IN-MH</t>
+          <t>IN-ML</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Maharashtra</t>
+          <t>Meghalaya</t>
         </is>
       </c>
       <c r="C173">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
       <c r="F173">
-        <v>22.22</v>
+        <v>36.36</v>
       </c>
       <c r="G173">
-        <v>2.78</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="174">
@@ -5316,16 +5316,16 @@
         <v>2023</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E174">
         <v>0</v>
       </c>
       <c r="F174">
-        <v>45.45</v>
+        <v>36.36</v>
       </c>
       <c r="G174">
-        <v>18.18</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="175">
@@ -5343,16 +5343,16 @@
         <v>2023</v>
       </c>
       <c r="D175">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E175">
         <v>0</v>
       </c>
       <c r="F175">
-        <v>45.45</v>
+        <v>36.36</v>
       </c>
       <c r="G175">
-        <v>18.18</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="176">
@@ -5370,16 +5370,16 @@
         <v>2023</v>
       </c>
       <c r="D176">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
       <c r="F176">
-        <v>36.36</v>
+        <v>45.45</v>
       </c>
       <c r="G176">
-        <v>27.27</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="177">
@@ -5397,16 +5397,16 @@
         <v>2023</v>
       </c>
       <c r="D177">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E177">
         <v>0</v>
       </c>
       <c r="F177">
-        <v>36.36</v>
+        <v>45.45</v>
       </c>
       <c r="G177">
-        <v>27.27</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="178">
@@ -5424,16 +5424,16 @@
         <v>2023</v>
       </c>
       <c r="D178">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E178">
         <v>0</v>
       </c>
       <c r="F178">
-        <v>36.36</v>
+        <v>45.45</v>
       </c>
       <c r="G178">
-        <v>27.27</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="179">
@@ -5451,7 +5451,7 @@
         <v>2023</v>
       </c>
       <c r="D179">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -5478,7 +5478,7 @@
         <v>2023</v>
       </c>
       <c r="D180">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -5505,7 +5505,7 @@
         <v>2023</v>
       </c>
       <c r="D181">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -5529,10 +5529,10 @@
         </is>
       </c>
       <c r="C182">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D182">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -5556,10 +5556,10 @@
         </is>
       </c>
       <c r="C183">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D183">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -5574,82 +5574,82 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C184">
         <v>2023</v>
       </c>
       <c r="D184">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E184">
         <v>0</v>
       </c>
       <c r="F184">
-        <v>45.45</v>
+        <v>25</v>
       </c>
       <c r="G184">
-        <v>18.18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C185">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E185">
         <v>0</v>
       </c>
       <c r="F185">
-        <v>45.45</v>
+        <v>31.25</v>
       </c>
       <c r="G185">
-        <v>18.18</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>IN-ML</t>
+          <t>IN-MN</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Meghalaya</t>
+          <t>Manipur</t>
         </is>
       </c>
       <c r="C186">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E186">
         <v>0</v>
       </c>
       <c r="F186">
-        <v>27.27</v>
+        <v>25</v>
       </c>
       <c r="G186">
-        <v>54.55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187">
@@ -5667,7 +5667,7 @@
         <v>2023</v>
       </c>
       <c r="D187">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -5694,7 +5694,7 @@
         <v>2023</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -5721,16 +5721,16 @@
         <v>2023</v>
       </c>
       <c r="D189">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E189">
         <v>0</v>
       </c>
       <c r="F189">
-        <v>25</v>
+        <v>31.25</v>
       </c>
       <c r="G189">
-        <v>50</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="190">
@@ -5748,7 +5748,7 @@
         <v>2023</v>
       </c>
       <c r="D190">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -5775,16 +5775,16 @@
         <v>2023</v>
       </c>
       <c r="D191">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
       <c r="F191">
-        <v>31.25</v>
+        <v>25</v>
       </c>
       <c r="G191">
-        <v>43.75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192">
@@ -5802,16 +5802,16 @@
         <v>2023</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E192">
         <v>0</v>
       </c>
       <c r="F192">
-        <v>31.25</v>
+        <v>25</v>
       </c>
       <c r="G192">
-        <v>43.75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="193">
@@ -5829,7 +5829,7 @@
         <v>2023</v>
       </c>
       <c r="D193">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>2023</v>
       </c>
       <c r="D194">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -5880,10 +5880,10 @@
         </is>
       </c>
       <c r="C195">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -5907,16 +5907,16 @@
         </is>
       </c>
       <c r="C196">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D196">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E196">
         <v>0</v>
       </c>
       <c r="F196">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="G196">
         <v>50</v>
@@ -5925,82 +5925,82 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C197">
         <v>2023</v>
       </c>
       <c r="D197">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E197">
         <v>0</v>
       </c>
       <c r="F197">
-        <v>25</v>
+        <v>44.23</v>
       </c>
       <c r="G197">
-        <v>50</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C198">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F198">
-        <v>25</v>
+        <v>42.31</v>
       </c>
       <c r="G198">
-        <v>50</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>IN-MN</t>
+          <t>IN-MP</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Manipur</t>
+          <t>Madhya Pradesh</t>
         </is>
       </c>
       <c r="C199">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="F199">
-        <v>37.5</v>
+        <v>44.23</v>
       </c>
       <c r="G199">
-        <v>62.5</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="200">
@@ -6018,16 +6018,16 @@
         <v>2023</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="F200">
-        <v>44.23</v>
+        <v>42.31</v>
       </c>
       <c r="G200">
-        <v>9.619999999999999</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="201">
@@ -6045,16 +6045,16 @@
         <v>2023</v>
       </c>
       <c r="D201">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E201">
         <v>1.92</v>
       </c>
       <c r="F201">
-        <v>42.31</v>
+        <v>44.23</v>
       </c>
       <c r="G201">
-        <v>9.619999999999999</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="202">
@@ -6072,7 +6072,7 @@
         <v>2023</v>
       </c>
       <c r="D202">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E202">
         <v>1.92</v>
@@ -6099,13 +6099,13 @@
         <v>2023</v>
       </c>
       <c r="D203">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E203">
-        <v>3.85</v>
+        <v>1.92</v>
       </c>
       <c r="F203">
-        <v>42.31</v>
+        <v>44.23</v>
       </c>
       <c r="G203">
         <v>7.69</v>
@@ -6126,7 +6126,7 @@
         <v>2023</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E204">
         <v>1.92</v>
@@ -6153,7 +6153,7 @@
         <v>2023</v>
       </c>
       <c r="D205">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E205">
         <v>1.92</v>
@@ -6180,7 +6180,7 @@
         <v>2023</v>
       </c>
       <c r="D206">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E206">
         <v>1.92</v>
@@ -6207,7 +6207,7 @@
         <v>2023</v>
       </c>
       <c r="D207">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E207">
         <v>1.92</v>
@@ -6231,10 +6231,10 @@
         </is>
       </c>
       <c r="C208">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D208">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E208">
         <v>1.92</v>
@@ -6258,13 +6258,13 @@
         </is>
       </c>
       <c r="C209">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D209">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E209">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="F209">
         <v>44.23</v>
@@ -6276,82 +6276,82 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C210">
         <v>2023</v>
       </c>
       <c r="D210">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E210">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>44.23</v>
+        <v>27.27</v>
       </c>
       <c r="G210">
-        <v>7.69</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C211">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E211">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>44.23</v>
+        <v>27.27</v>
       </c>
       <c r="G211">
-        <v>7.69</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>IN-MP</t>
+          <t>IN-MZ</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Madhya Pradesh</t>
+          <t>Mizoram</t>
         </is>
       </c>
       <c r="C212">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D212">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E212">
         <v>0</v>
       </c>
       <c r="F212">
-        <v>51.92</v>
+        <v>18.18</v>
       </c>
       <c r="G212">
-        <v>21.15</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="213">
@@ -6369,16 +6369,16 @@
         <v>2023</v>
       </c>
       <c r="D213">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E213">
         <v>0</v>
       </c>
       <c r="F213">
-        <v>27.27</v>
+        <v>18.18</v>
       </c>
       <c r="G213">
-        <v>45.45</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="214">
@@ -6396,16 +6396,16 @@
         <v>2023</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E214">
         <v>0</v>
       </c>
       <c r="F214">
-        <v>27.27</v>
+        <v>18.18</v>
       </c>
       <c r="G214">
-        <v>45.45</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="215">
@@ -6423,7 +6423,7 @@
         <v>2023</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -6450,7 +6450,7 @@
         <v>2023</v>
       </c>
       <c r="D216">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -6477,7 +6477,7 @@
         <v>2023</v>
       </c>
       <c r="D217">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -6504,7 +6504,7 @@
         <v>2023</v>
       </c>
       <c r="D218">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -6531,7 +6531,7 @@
         <v>2023</v>
       </c>
       <c r="D219">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -6558,16 +6558,16 @@
         <v>2023</v>
       </c>
       <c r="D220">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E220">
         <v>0</v>
       </c>
       <c r="F220">
-        <v>18.18</v>
+        <v>27.27</v>
       </c>
       <c r="G220">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="221">
@@ -6582,19 +6582,19 @@
         </is>
       </c>
       <c r="C221">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D221">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E221">
         <v>0</v>
       </c>
       <c r="F221">
-        <v>18.18</v>
+        <v>27.27</v>
       </c>
       <c r="G221">
-        <v>54.55</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="222">
@@ -6609,100 +6609,100 @@
         </is>
       </c>
       <c r="C222">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D222">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E222">
         <v>0</v>
       </c>
       <c r="F222">
-        <v>18.18</v>
+        <v>45.45</v>
       </c>
       <c r="G222">
-        <v>54.55</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C223">
         <v>2023</v>
       </c>
       <c r="D223">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E223">
         <v>0</v>
       </c>
       <c r="F223">
-        <v>27.27</v>
+        <v>20</v>
       </c>
       <c r="G223">
-        <v>45.45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C224">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
       <c r="F224">
-        <v>27.27</v>
+        <v>20</v>
       </c>
       <c r="G224">
-        <v>45.45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>IN-MZ</t>
+          <t>IN-NL</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Mizoram</t>
+          <t>Nagaland</t>
         </is>
       </c>
       <c r="C225">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E225">
         <v>0</v>
       </c>
       <c r="F225">
-        <v>36.36</v>
+        <v>10</v>
       </c>
       <c r="G225">
-        <v>63.64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="226">
@@ -6720,16 +6720,16 @@
         <v>2023</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E226">
         <v>0</v>
       </c>
       <c r="F226">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G226">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="227">
@@ -6747,7 +6747,7 @@
         <v>2023</v>
       </c>
       <c r="D227">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -6774,16 +6774,16 @@
         <v>2023</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E228">
         <v>0</v>
       </c>
       <c r="F228">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G228">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229">
@@ -6801,16 +6801,16 @@
         <v>2023</v>
       </c>
       <c r="D229">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E229">
         <v>0</v>
       </c>
       <c r="F229">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G229">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="230">
@@ -6828,7 +6828,7 @@
         <v>2023</v>
       </c>
       <c r="D230">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -6855,7 +6855,7 @@
         <v>2023</v>
       </c>
       <c r="D231">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -6882,16 +6882,16 @@
         <v>2023</v>
       </c>
       <c r="D232">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E232">
         <v>0</v>
       </c>
       <c r="F232">
-        <v>20</v>
+        <v>18.18</v>
       </c>
       <c r="G232">
-        <v>30</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="233">
@@ -6909,16 +6909,16 @@
         <v>2023</v>
       </c>
       <c r="D233">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E233">
         <v>0</v>
       </c>
       <c r="F233">
-        <v>20</v>
+        <v>18.18</v>
       </c>
       <c r="G233">
-        <v>30</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="234">
@@ -6933,19 +6933,19 @@
         </is>
       </c>
       <c r="C234">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D234">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E234">
         <v>0</v>
       </c>
       <c r="F234">
-        <v>20</v>
+        <v>18.18</v>
       </c>
       <c r="G234">
-        <v>30</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="235">
@@ -6960,100 +6960,100 @@
         </is>
       </c>
       <c r="C235">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D235">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E235">
         <v>0</v>
       </c>
       <c r="F235">
-        <v>18.18</v>
+        <v>36.36</v>
       </c>
       <c r="G235">
-        <v>27.27</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C236">
         <v>2023</v>
       </c>
       <c r="D236">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E236">
         <v>0</v>
       </c>
       <c r="F236">
-        <v>18.18</v>
+        <v>46.67</v>
       </c>
       <c r="G236">
-        <v>27.27</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C237">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E237">
         <v>0</v>
       </c>
       <c r="F237">
-        <v>18.18</v>
+        <v>50</v>
       </c>
       <c r="G237">
-        <v>27.27</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>IN-NL</t>
+          <t>IN-OR</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Nagaland</t>
+          <t>Odisha</t>
         </is>
       </c>
       <c r="C238">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E238">
         <v>0</v>
       </c>
       <c r="F238">
-        <v>45.45</v>
+        <v>50</v>
       </c>
       <c r="G238">
-        <v>36.36</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="239">
@@ -7071,16 +7071,16 @@
         <v>2023</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E239">
         <v>0</v>
       </c>
       <c r="F239">
-        <v>46.67</v>
+        <v>53.33</v>
       </c>
       <c r="G239">
-        <v>16.67</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240">
@@ -7098,16 +7098,16 @@
         <v>2023</v>
       </c>
       <c r="D240">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E240">
         <v>0</v>
       </c>
       <c r="F240">
-        <v>50</v>
+        <v>53.33</v>
       </c>
       <c r="G240">
-        <v>13.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241">
@@ -7125,16 +7125,16 @@
         <v>2023</v>
       </c>
       <c r="D241">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E241">
         <v>0</v>
       </c>
       <c r="F241">
-        <v>50</v>
+        <v>53.33</v>
       </c>
       <c r="G241">
-        <v>13.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242">
@@ -7152,7 +7152,7 @@
         <v>2023</v>
       </c>
       <c r="D242">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E242">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>2023</v>
       </c>
       <c r="D243">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E243">
         <v>0</v>
@@ -7206,7 +7206,7 @@
         <v>2023</v>
       </c>
       <c r="D244">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E244">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>2023</v>
       </c>
       <c r="D245">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E245">
         <v>0</v>
@@ -7260,16 +7260,16 @@
         <v>2023</v>
       </c>
       <c r="D246">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E246">
         <v>0</v>
       </c>
       <c r="F246">
-        <v>53.33</v>
+        <v>56.67</v>
       </c>
       <c r="G246">
-        <v>10</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="247">
@@ -7284,19 +7284,19 @@
         </is>
       </c>
       <c r="C247">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D247">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>6.67</v>
       </c>
       <c r="F247">
-        <v>53.33</v>
+        <v>50</v>
       </c>
       <c r="G247">
-        <v>10</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="248">
@@ -7311,91 +7311,91 @@
         </is>
       </c>
       <c r="C248">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D248">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E248">
         <v>0</v>
       </c>
       <c r="F248">
-        <v>53.33</v>
+        <v>50</v>
       </c>
       <c r="G248">
-        <v>10</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C249">
         <v>2023</v>
       </c>
       <c r="D249">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E249">
         <v>0</v>
       </c>
       <c r="F249">
-        <v>56.67</v>
+        <v>50</v>
       </c>
       <c r="G249">
-        <v>6.67</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C250">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E250">
-        <v>6.67</v>
+        <v>0</v>
       </c>
       <c r="F250">
         <v>50</v>
       </c>
       <c r="G250">
-        <v>6.67</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>IN-OR</t>
+          <t>IN-PB</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C251">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D251">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -7404,7 +7404,7 @@
         <v>50</v>
       </c>
       <c r="G251">
-        <v>30</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="252">
@@ -7422,7 +7422,7 @@
         <v>2023</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>2023</v>
       </c>
       <c r="D253">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -7476,7 +7476,7 @@
         <v>2023</v>
       </c>
       <c r="D254">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>2023</v>
       </c>
       <c r="D255">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E255">
         <v>0</v>
@@ -7530,7 +7530,7 @@
         <v>2023</v>
       </c>
       <c r="D256">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E256">
         <v>0</v>
@@ -7557,7 +7557,7 @@
         <v>2023</v>
       </c>
       <c r="D257">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E257">
         <v>0</v>
@@ -7584,7 +7584,7 @@
         <v>2023</v>
       </c>
       <c r="D258">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>2023</v>
       </c>
       <c r="D259">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E259">
         <v>0</v>
@@ -7635,10 +7635,10 @@
         </is>
       </c>
       <c r="C260">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D260">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E260">
         <v>0</v>
@@ -7662,10 +7662,10 @@
         </is>
       </c>
       <c r="C261">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D261">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E261">
         <v>0</v>
@@ -7680,82 +7680,82 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C262">
         <v>2023</v>
       </c>
       <c r="D262">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E262">
         <v>0</v>
       </c>
       <c r="F262">
+        <v>25</v>
+      </c>
+      <c r="G262">
         <v>50</v>
-      </c>
-      <c r="G262">
-        <v>31.82</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C263">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E263">
         <v>0</v>
       </c>
       <c r="F263">
+        <v>25</v>
+      </c>
+      <c r="G263">
         <v>50</v>
-      </c>
-      <c r="G263">
-        <v>31.82</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>IN-PB</t>
+          <t>IN-PY</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Puducherry</t>
         </is>
       </c>
       <c r="C264">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D264">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E264">
         <v>0</v>
       </c>
       <c r="F264">
-        <v>22.73</v>
+        <v>25</v>
       </c>
       <c r="G264">
-        <v>63.64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="265">
@@ -7773,7 +7773,7 @@
         <v>2023</v>
       </c>
       <c r="D265">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E265">
         <v>0</v>
@@ -7800,7 +7800,7 @@
         <v>2023</v>
       </c>
       <c r="D266">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E266">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>2023</v>
       </c>
       <c r="D267">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E267">
         <v>0</v>
@@ -7854,7 +7854,7 @@
         <v>2023</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -7881,7 +7881,7 @@
         <v>2023</v>
       </c>
       <c r="D269">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -7908,7 +7908,7 @@
         <v>2023</v>
       </c>
       <c r="D270">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -7935,7 +7935,7 @@
         <v>2023</v>
       </c>
       <c r="D271">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>2023</v>
       </c>
       <c r="D272">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E272">
         <v>0</v>
@@ -7986,19 +7986,19 @@
         </is>
       </c>
       <c r="C273">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D273">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E273">
         <v>0</v>
       </c>
       <c r="F273">
+        <v>50</v>
+      </c>
+      <c r="G273">
         <v>25</v>
-      </c>
-      <c r="G273">
-        <v>50</v>
       </c>
     </row>
     <row r="274">
@@ -8013,100 +8013,100 @@
         </is>
       </c>
       <c r="C274">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D274">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E274">
         <v>0</v>
       </c>
       <c r="F274">
+        <v>50</v>
+      </c>
+      <c r="G274">
         <v>25</v>
-      </c>
-      <c r="G274">
-        <v>50</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C275">
         <v>2023</v>
       </c>
       <c r="D275">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E275">
         <v>0</v>
       </c>
       <c r="F275">
-        <v>25</v>
+        <v>30.3</v>
       </c>
       <c r="G275">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C276">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E276">
         <v>0</v>
       </c>
       <c r="F276">
-        <v>50</v>
+        <v>30.3</v>
       </c>
       <c r="G276">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>IN-PY</t>
+          <t>IN-RJ</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Puducherry</t>
+          <t>Rajasthan</t>
         </is>
       </c>
       <c r="C277">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D277">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E277">
         <v>0</v>
       </c>
       <c r="F277">
-        <v>25</v>
+        <v>30.3</v>
       </c>
       <c r="G277">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -8124,7 +8124,7 @@
         <v>2023</v>
       </c>
       <c r="D278">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>2023</v>
       </c>
       <c r="D279">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -8178,7 +8178,7 @@
         <v>2023</v>
       </c>
       <c r="D280">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -8205,7 +8205,7 @@
         <v>2023</v>
       </c>
       <c r="D281">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -8232,7 +8232,7 @@
         <v>2023</v>
       </c>
       <c r="D282">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -8259,13 +8259,13 @@
         <v>2023</v>
       </c>
       <c r="D283">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F283">
-        <v>30.3</v>
+        <v>27.27</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -8286,13 +8286,13 @@
         <v>2023</v>
       </c>
       <c r="D284">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F284">
-        <v>30.3</v>
+        <v>27.27</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -8313,13 +8313,13 @@
         <v>2023</v>
       </c>
       <c r="D285">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>3.03</v>
       </c>
       <c r="F285">
-        <v>30.3</v>
+        <v>27.27</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -8337,10 +8337,10 @@
         </is>
       </c>
       <c r="C286">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D286">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E286">
         <v>3.03</v>
@@ -8364,13 +8364,13 @@
         </is>
       </c>
       <c r="C287">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D287">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E287">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F287">
         <v>27.27</v>
@@ -8382,25 +8382,25 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C288">
         <v>2023</v>
       </c>
       <c r="D288">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E288">
-        <v>3.03</v>
+        <v>0</v>
       </c>
       <c r="F288">
-        <v>27.27</v>
+        <v>5.41</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -8409,25 +8409,25 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C289">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E289">
-        <v>3.03</v>
+        <v>2.7</v>
       </c>
       <c r="F289">
-        <v>27.27</v>
+        <v>2.7</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -8436,28 +8436,28 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>IN-RJ</t>
+          <t>IN-TN</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Rajasthan</t>
+          <t>Tamil Nadu</t>
         </is>
       </c>
       <c r="C290">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D290">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F290">
-        <v>45.45</v>
+        <v>2.7</v>
       </c>
       <c r="G290">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -8475,7 +8475,7 @@
         <v>2023</v>
       </c>
       <c r="D291">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E291">
         <v>0</v>
@@ -8502,13 +8502,13 @@
         <v>2023</v>
       </c>
       <c r="D292">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E292">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F292">
-        <v>2.7</v>
+        <v>5.41</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>2023</v>
       </c>
       <c r="D293">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E293">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F293">
-        <v>2.7</v>
+        <v>5.41</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -8556,7 +8556,7 @@
         <v>2023</v>
       </c>
       <c r="D294">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E294">
         <v>0</v>
@@ -8583,7 +8583,7 @@
         <v>2023</v>
       </c>
       <c r="D295">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E295">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>2023</v>
       </c>
       <c r="D296">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -8637,13 +8637,13 @@
         <v>2023</v>
       </c>
       <c r="D297">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F297">
-        <v>5.41</v>
+        <v>2.7</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -8664,13 +8664,13 @@
         <v>2023</v>
       </c>
       <c r="D298">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F298">
-        <v>5.41</v>
+        <v>2.7</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -8688,16 +8688,16 @@
         </is>
       </c>
       <c r="C299">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D299">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E299">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="F299">
-        <v>5.41</v>
+        <v>2.7</v>
       </c>
       <c r="G299">
         <v>0</v>
@@ -8715,13 +8715,13 @@
         </is>
       </c>
       <c r="C300">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D300">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E300">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F300">
         <v>2.7</v>
@@ -8733,82 +8733,82 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C301">
         <v>2023</v>
       </c>
       <c r="D301">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E301">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F301">
-        <v>2.7</v>
+        <v>75</v>
       </c>
       <c r="G301">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C302">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E302">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="F302">
-        <v>2.7</v>
+        <v>75</v>
       </c>
       <c r="G302">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>IN-TN</t>
+          <t>IN-TR</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Tamil Nadu</t>
+          <t>Tripura</t>
         </is>
       </c>
       <c r="C303">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D303">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E303">
         <v>0</v>
       </c>
       <c r="F303">
-        <v>8.109999999999999</v>
+        <v>75</v>
       </c>
       <c r="G303">
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="304">
@@ -8826,7 +8826,7 @@
         <v>2023</v>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E304">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>2023</v>
       </c>
       <c r="D305">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -8880,7 +8880,7 @@
         <v>2023</v>
       </c>
       <c r="D306">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E306">
         <v>0</v>
@@ -8907,7 +8907,7 @@
         <v>2023</v>
       </c>
       <c r="D307">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -8934,7 +8934,7 @@
         <v>2023</v>
       </c>
       <c r="D308">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -8961,13 +8961,13 @@
         <v>2023</v>
       </c>
       <c r="D309">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F309">
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="G309">
         <v>12.5</v>
@@ -8988,13 +8988,13 @@
         <v>2023</v>
       </c>
       <c r="D310">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E310">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F310">
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="G310">
         <v>12.5</v>
@@ -9015,13 +9015,13 @@
         <v>2023</v>
       </c>
       <c r="D311">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E311">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F311">
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="G311">
         <v>12.5</v>
@@ -9039,10 +9039,10 @@
         </is>
       </c>
       <c r="C312">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D312">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E312">
         <v>12.5</v>
@@ -9066,13 +9066,13 @@
         </is>
       </c>
       <c r="C313">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D313">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E313">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F313">
         <v>62.5</v>
@@ -9084,82 +9084,82 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C314">
         <v>2023</v>
       </c>
       <c r="D314">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E314">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F314">
-        <v>62.5</v>
+        <v>42.42</v>
       </c>
       <c r="G314">
-        <v>12.5</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C315">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D315">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E315">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F315">
-        <v>62.5</v>
+        <v>42.42</v>
       </c>
       <c r="G315">
-        <v>12.5</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>IN-TR</t>
+          <t>IN-TS</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Tripura</t>
+          <t>Telangana</t>
         </is>
       </c>
       <c r="C316">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D316">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E316">
         <v>0</v>
       </c>
       <c r="F316">
-        <v>62.5</v>
+        <v>42.42</v>
       </c>
       <c r="G316">
-        <v>37.5</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="317">
@@ -9177,7 +9177,7 @@
         <v>2023</v>
       </c>
       <c r="D317">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -9204,16 +9204,16 @@
         <v>2023</v>
       </c>
       <c r="D318">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E318">
         <v>0</v>
       </c>
       <c r="F318">
-        <v>42.42</v>
+        <v>45.45</v>
       </c>
       <c r="G318">
-        <v>18.18</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="319">
@@ -9231,16 +9231,16 @@
         <v>2023</v>
       </c>
       <c r="D319">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E319">
         <v>0</v>
       </c>
       <c r="F319">
-        <v>42.42</v>
+        <v>45.45</v>
       </c>
       <c r="G319">
-        <v>18.18</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="320">
@@ -9258,16 +9258,16 @@
         <v>2023</v>
       </c>
       <c r="D320">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E320">
         <v>0</v>
       </c>
       <c r="F320">
-        <v>42.42</v>
+        <v>45.45</v>
       </c>
       <c r="G320">
-        <v>18.18</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="321">
@@ -9285,7 +9285,7 @@
         <v>2023</v>
       </c>
       <c r="D321">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E321">
         <v>0</v>
@@ -9312,7 +9312,7 @@
         <v>2023</v>
       </c>
       <c r="D322">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E322">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>2023</v>
       </c>
       <c r="D323">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -9366,7 +9366,7 @@
         <v>2023</v>
       </c>
       <c r="D324">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E324">
         <v>0</v>
@@ -9390,19 +9390,19 @@
         </is>
       </c>
       <c r="C325">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D325">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E325">
         <v>0</v>
       </c>
       <c r="F325">
-        <v>45.45</v>
+        <v>48.48</v>
       </c>
       <c r="G325">
-        <v>15.15</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="326">
@@ -9417,10 +9417,10 @@
         </is>
       </c>
       <c r="C326">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D326">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E326">
         <v>0</v>
@@ -9429,88 +9429,88 @@
         <v>45.45</v>
       </c>
       <c r="G326">
-        <v>15.15</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>IN-TS</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Telangana</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C327">
         <v>2023</v>
       </c>
       <c r="D327">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E327">
         <v>0</v>
       </c>
       <c r="F327">
-        <v>45.45</v>
+        <v>37.33</v>
       </c>
       <c r="G327">
-        <v>15.15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>IN-TS</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Telangana</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C328">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D328">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E328">
         <v>0</v>
       </c>
       <c r="F328">
-        <v>48.48</v>
+        <v>37.33</v>
       </c>
       <c r="G328">
-        <v>12.12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>IN-TS</t>
+          <t>IN-UP</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Telangana</t>
+          <t>Uttar Pradesh</t>
         </is>
       </c>
       <c r="C329">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D329">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E329">
         <v>0</v>
       </c>
       <c r="F329">
-        <v>33.33</v>
+        <v>38.67</v>
       </c>
       <c r="G329">
-        <v>33.33</v>
+        <v>50.67</v>
       </c>
     </row>
     <row r="330">
@@ -9528,16 +9528,16 @@
         <v>2023</v>
       </c>
       <c r="D330">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F330">
         <v>37.33</v>
       </c>
       <c r="G330">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="331">
@@ -9555,16 +9555,16 @@
         <v>2023</v>
       </c>
       <c r="D331">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="F331">
         <v>37.33</v>
       </c>
       <c r="G331">
-        <v>52</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="332">
@@ -9582,16 +9582,16 @@
         <v>2023</v>
       </c>
       <c r="D332">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="F332">
         <v>38.67</v>
       </c>
       <c r="G332">
-        <v>50.67</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="333">
@@ -9609,16 +9609,16 @@
         <v>2023</v>
       </c>
       <c r="D333">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E333">
-        <v>4</v>
+        <v>1.33</v>
       </c>
       <c r="F333">
-        <v>37.33</v>
+        <v>38.67</v>
       </c>
       <c r="G333">
-        <v>48</v>
+        <v>49.33</v>
       </c>
     </row>
     <row r="334">
@@ -9636,13 +9636,13 @@
         <v>2023</v>
       </c>
       <c r="D334">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E334">
-        <v>2.67</v>
+        <v>1.33</v>
       </c>
       <c r="F334">
-        <v>37.33</v>
+        <v>38.67</v>
       </c>
       <c r="G334">
         <v>49.33</v>
@@ -9663,7 +9663,7 @@
         <v>2023</v>
       </c>
       <c r="D335">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E335">
         <v>1.33</v>
@@ -9690,7 +9690,7 @@
         <v>2023</v>
       </c>
       <c r="D336">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E336">
         <v>1.33</v>
@@ -9717,7 +9717,7 @@
         <v>2023</v>
       </c>
       <c r="D337">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E337">
         <v>1.33</v>
@@ -9741,10 +9741,10 @@
         </is>
       </c>
       <c r="C338">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D338">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E338">
         <v>1.33</v>
@@ -9768,13 +9768,13 @@
         </is>
       </c>
       <c r="C339">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D339">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E339">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="F339">
         <v>38.67</v>
@@ -9786,82 +9786,82 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>IN-UP</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C340">
         <v>2023</v>
       </c>
       <c r="D340">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E340">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="F340">
-        <v>38.67</v>
+        <v>13.04</v>
       </c>
       <c r="G340">
-        <v>49.33</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>IN-UP</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C341">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E341">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="F341">
-        <v>38.67</v>
+        <v>13.04</v>
       </c>
       <c r="G341">
-        <v>49.33</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>IN-UP</t>
+          <t>IN-WB</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Uttar Pradesh</t>
+          <t>West Bengal</t>
         </is>
       </c>
       <c r="C342">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="D342">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E342">
         <v>0</v>
       </c>
       <c r="F342">
-        <v>28</v>
+        <v>13.04</v>
       </c>
       <c r="G342">
-        <v>64</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="343">
@@ -9879,7 +9879,7 @@
         <v>2023</v>
       </c>
       <c r="D343">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E343">
         <v>0</v>
@@ -9906,16 +9906,16 @@
         <v>2023</v>
       </c>
       <c r="D344">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E344">
         <v>0</v>
       </c>
       <c r="F344">
-        <v>13.04</v>
+        <v>17.39</v>
       </c>
       <c r="G344">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -9933,16 +9933,16 @@
         <v>2023</v>
       </c>
       <c r="D345">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E345">
         <v>0</v>
       </c>
       <c r="F345">
-        <v>13.04</v>
+        <v>17.39</v>
       </c>
       <c r="G345">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -9960,16 +9960,16 @@
         <v>2023</v>
       </c>
       <c r="D346">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E346">
         <v>0</v>
       </c>
       <c r="F346">
-        <v>13.04</v>
+        <v>17.39</v>
       </c>
       <c r="G346">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -9987,7 +9987,7 @@
         <v>2023</v>
       </c>
       <c r="D347">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E347">
         <v>0</v>
@@ -10014,7 +10014,7 @@
         <v>2023</v>
       </c>
       <c r="D348">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E348">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>2023</v>
       </c>
       <c r="D349">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -10068,7 +10068,7 @@
         <v>2023</v>
       </c>
       <c r="D350">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -10092,10 +10092,10 @@
         </is>
       </c>
       <c r="C351">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D351">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E351">
         <v>0</v>
@@ -10119,10 +10119,10 @@
         </is>
       </c>
       <c r="C352">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="D352">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E352">
         <v>0</v>
@@ -10132,87 +10132,6 @@
       </c>
       <c r="G352">
         <v>0</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C353">
-        <v>2023</v>
-      </c>
-      <c r="D353">
-        <v>12</v>
-      </c>
-      <c r="E353">
-        <v>0</v>
-      </c>
-      <c r="F353">
-        <v>17.39</v>
-      </c>
-      <c r="G353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C354">
-        <v>2024</v>
-      </c>
-      <c r="D354">
-        <v>1</v>
-      </c>
-      <c r="E354">
-        <v>0</v>
-      </c>
-      <c r="F354">
-        <v>17.39</v>
-      </c>
-      <c r="G354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>IN-WB</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>West Bengal</t>
-        </is>
-      </c>
-      <c r="C355">
-        <v>2024</v>
-      </c>
-      <c r="D355">
-        <v>2</v>
-      </c>
-      <c r="E355">
-        <v>0</v>
-      </c>
-      <c r="F355">
-        <v>26.09</v>
-      </c>
-      <c r="G355">
-        <v>13.04</v>
       </c>
     </row>
   </sheetData>
@@ -10267,85 +10186,85 @@
         </is>
       </c>
       <c r="B2">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>65.38</v>
       </c>
       <c r="F2">
-        <v>80</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Magadha</t>
+          <t>Ghaggar</t>
         </is>
       </c>
       <c r="B3">
         <v>2023</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.33</v>
+        <v>65.38</v>
       </c>
       <c r="F3">
-        <v>84.44</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Magadha</t>
+          <t>Ghaggar</t>
         </is>
       </c>
       <c r="B4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.33</v>
+        <v>65.38</v>
       </c>
       <c r="F4">
-        <v>84.44</v>
+        <v>34.62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Magadha</t>
+          <t>Ghaggar</t>
         </is>
       </c>
       <c r="B5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.33</v>
+        <v>65</v>
       </c>
       <c r="F5">
-        <v>84.44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -10358,16 +10277,16 @@
         <v>2023</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.78</v>
+        <v>13.33</v>
       </c>
       <c r="F6">
-        <v>80</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="7">
@@ -10380,16 +10299,16 @@
         <v>2023</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.78</v>
+        <v>13.33</v>
       </c>
       <c r="F7">
-        <v>80</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="8">
@@ -10402,16 +10321,16 @@
         <v>2023</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>15.56</v>
+        <v>13.33</v>
       </c>
       <c r="F8">
-        <v>80</v>
+        <v>84.44</v>
       </c>
     </row>
     <row r="9">
@@ -10424,13 +10343,13 @@
         <v>2023</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>15.56</v>
+        <v>17.78</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -10446,16 +10365,16 @@
         <v>2023</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>13.33</v>
+        <v>17.78</v>
       </c>
       <c r="F10">
-        <v>82.22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -10468,7 +10387,7 @@
         <v>2023</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>2.22</v>
@@ -10490,7 +10409,7 @@
         <v>2023</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>2.22</v>
@@ -10512,16 +10431,16 @@
         <v>2023</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>2.22</v>
       </c>
       <c r="E13">
-        <v>15.56</v>
+        <v>13.33</v>
       </c>
       <c r="F13">
-        <v>80</v>
+        <v>82.22</v>
       </c>
     </row>
     <row r="14">
@@ -10531,10 +10450,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>2.22</v>
@@ -10553,85 +10472,85 @@
         </is>
       </c>
       <c r="B15">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="E15">
-        <v>6.67</v>
+        <v>15.56</v>
       </c>
       <c r="F15">
-        <v>93.33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Northeast</t>
+          <t>Magadha</t>
         </is>
       </c>
       <c r="B16">
         <v>2023</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="E16">
-        <v>29.46</v>
+        <v>15.56</v>
       </c>
       <c r="F16">
-        <v>27.68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Northeast</t>
+          <t>Magadha</t>
         </is>
       </c>
       <c r="B17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="E17">
-        <v>30.36</v>
+        <v>15.56</v>
       </c>
       <c r="F17">
-        <v>26.79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Northeast</t>
+          <t>Magadha</t>
         </is>
       </c>
       <c r="B18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>26.79</v>
+        <v>17.78</v>
       </c>
       <c r="F18">
-        <v>30.36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
@@ -10644,16 +10563,16 @@
         <v>2023</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
+        <v>29.46</v>
+      </c>
+      <c r="F19">
         <v>27.68</v>
-      </c>
-      <c r="F19">
-        <v>29.46</v>
       </c>
     </row>
     <row r="20">
@@ -10666,16 +10585,16 @@
         <v>2023</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>29.46</v>
+        <v>30.36</v>
       </c>
       <c r="F20">
-        <v>27.68</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="21">
@@ -10688,16 +10607,16 @@
         <v>2023</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
+        <v>26.79</v>
+      </c>
+      <c r="F21">
         <v>30.36</v>
-      </c>
-      <c r="F21">
-        <v>26.79</v>
       </c>
     </row>
     <row r="22">
@@ -10710,16 +10629,16 @@
         <v>2023</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
+        <v>27.68</v>
+      </c>
+      <c r="F22">
         <v>29.46</v>
-      </c>
-      <c r="F22">
-        <v>27.68</v>
       </c>
     </row>
     <row r="23">
@@ -10732,16 +10651,16 @@
         <v>2023</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>29.2</v>
+        <v>29.46</v>
       </c>
       <c r="F23">
-        <v>27.43</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="24">
@@ -10754,16 +10673,16 @@
         <v>2023</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>29.2</v>
+        <v>30.36</v>
       </c>
       <c r="F24">
-        <v>26.55</v>
+        <v>26.79</v>
       </c>
     </row>
     <row r="25">
@@ -10776,16 +10695,16 @@
         <v>2023</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>28.7</v>
+        <v>29.46</v>
       </c>
       <c r="F25">
-        <v>26.09</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="26">
@@ -10798,16 +10717,16 @@
         <v>2023</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>29.57</v>
+        <v>29.2</v>
       </c>
       <c r="F26">
-        <v>25.22</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="27">
@@ -10817,19 +10736,19 @@
         </is>
       </c>
       <c r="B27">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>1.74</v>
+        <v>0.88</v>
       </c>
       <c r="E27">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="F27">
-        <v>25.22</v>
+        <v>26.55</v>
       </c>
     </row>
     <row r="28">
@@ -10839,85 +10758,85 @@
         </is>
       </c>
       <c r="B28">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="E28">
-        <v>36.52</v>
+        <v>28.7</v>
       </c>
       <c r="F28">
-        <v>42.61</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Northwest</t>
+          <t>Northeast</t>
         </is>
       </c>
       <c r="B29">
         <v>2023</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="E29">
-        <v>65.38</v>
+        <v>29.57</v>
       </c>
       <c r="F29">
-        <v>34.62</v>
+        <v>25.22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Northwest</t>
+          <t>Northeast</t>
         </is>
       </c>
       <c r="B30">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="E30">
-        <v>65.38</v>
+        <v>28.7</v>
       </c>
       <c r="F30">
-        <v>34.62</v>
+        <v>25.22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Northwest</t>
+          <t>Northeast</t>
         </is>
       </c>
       <c r="B31">
         <v>2024</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>65.38</v>
+        <v>33.91</v>
       </c>
       <c r="F31">
-        <v>34.62</v>
+        <v>26.96</v>
       </c>
     </row>
   </sheetData>
